--- a/star_count_all_reviews.xlsx
+++ b/star_count_all_reviews.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="72" windowWidth="22980" windowHeight="9528"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="19440" windowHeight="9525"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -215,16 +215,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>436245</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>365760</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>70485</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>74295</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -552,11 +552,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="A1:B5"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
